--- a/4.SUBMIT_PLACE/4.2 HIEN_NGUYEN/PLANNING/BSS_EarnValueManagement_V1.0.xlsx
+++ b/4.SUBMIT_PLACE/4.2 HIEN_NGUYEN/PLANNING/BSS_EarnValueManagement_V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -1666,7 +1666,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1786,7 +1786,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
-          <c:min val="0.4"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4004,282 +4004,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="1266825"/>
-          <a:ext cx="2095500" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Behind</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t> schedule, Under budget</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7753350" y="1238250"/>
-          <a:ext cx="2095500" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Ahead </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t>schedule, Under budget</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="4410075"/>
-          <a:ext cx="2095500" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Behind</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t> schedule, Over budget</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7800975" y="4429125"/>
-          <a:ext cx="2095500" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Ahead </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t>schedule, Over budget</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4288,11 +4012,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.06335</cdr:x>
-      <cdr:y>0.22037</cdr:y>
+      <cdr:y>0.237</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.97856</cdr:x>
-      <cdr:y>0.22037</cdr:y>
+      <cdr:y>0.237</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -4307,8 +4031,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="619125" y="1009651"/>
-          <a:ext cx="8943975" cy="0"/>
+          <a:off x="619097" y="1085831"/>
+          <a:ext cx="8944027" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4332,11 +4056,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79337</cdr:x>
+      <cdr:x>0.77583</cdr:x>
       <cdr:y>0.11019</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79435</cdr:x>
+      <cdr:x>0.77681</cdr:x>
       <cdr:y>0.87734</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -4352,8 +4076,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="7753350" y="504826"/>
-          <a:ext cx="9525" cy="3514725"/>
+          <a:off x="7581877" y="504838"/>
+          <a:ext cx="9578" cy="3514717"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4374,6 +4098,626 @@
         </a:fontRef>
       </cdr:style>
     </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06953</cdr:x>
+      <cdr:y>0.80735</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28395</cdr:x>
+      <cdr:y>0.88011</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="679450" y="3698875"/>
+          <a:ext cx="2095500" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Behind</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> schedule, Over budget</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07245</cdr:x>
+      <cdr:y>0.12335</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28687</cdr:x>
+      <cdr:y>0.19612</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="708025" y="565150"/>
+          <a:ext cx="2095500" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Behind</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> schedule, Under budget</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78558</cdr:x>
+      <cdr:y>0.11504</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.1878</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7677150" y="527050"/>
+          <a:ext cx="2095500" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Ahead </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>schedule, Under budget</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78558</cdr:x>
+      <cdr:y>0.79279</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.86556</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7677150" y="3632200"/>
+          <a:ext cx="2095500" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Ahead </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>schedule, Over budget</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -4643,7 +4987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -5015,7 +5359,7 @@
         <v>3179.15</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" ref="W4:AJ4" si="0">V4+$AB$15</f>
+        <f t="shared" ref="W4:AI4" si="0">V4+$AB$15</f>
         <v>3379.15</v>
       </c>
       <c r="X4" s="1">
@@ -5168,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
